--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportSuppliers.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportSuppliers.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Fournisseurs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Usines" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Fournisseurs!$B$3:$R$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Usines!$B$3:$M$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -327,6 +331,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -336,17 +348,19 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -470,6 +484,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:R3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -477,6 +492,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -489,13 +505,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -589,6 +605,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:M3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -596,5 +613,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>